--- a/X月新番中期评分.xlsx
+++ b/X月新番中期评分.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\mzzbscore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A21A7D-626B-4B22-A411-56D90F60AE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E3880-5CBA-4CF8-95AF-3EE79F45E4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27720" yWindow="3885" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本季" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">本季!$A$2:$V$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">本季!$A$2:$Z$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>原名</t>
   </si>
@@ -93,6 +93,22 @@
   </si>
   <si>
     <t>Filmarks_Rank</t>
+  </si>
+  <si>
+    <t>Bangumi_total</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anilist_total</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyAnimelist_total</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filmarks_total</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -220,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -249,21 +265,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,14 +463,14 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -748,45 +749,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AHZ73"/>
+  <dimension ref="A1:AID73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:F1048576"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="34.77734375" style="43" customWidth="1"/>
     <col min="3" max="3" width="12" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.21875" style="8" customWidth="1"/>
-    <col min="9" max="10" width="19.21875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="25" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="28.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" style="43" customWidth="1"/>
-    <col min="19" max="20" width="9.77734375" style="43" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" style="40" customWidth="1"/>
-    <col min="22" max="22" width="8.77734375" style="43" customWidth="1"/>
-    <col min="23" max="23" width="32.6640625" style="43" customWidth="1"/>
-    <col min="24" max="24" width="25.33203125" style="43" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" style="8" customWidth="1"/>
+    <col min="6" max="8" width="13.6640625" style="8" customWidth="1"/>
+    <col min="9" max="11" width="13.21875" style="8" customWidth="1"/>
+    <col min="12" max="14" width="19.21875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="25" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="28.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" style="43" customWidth="1"/>
+    <col min="21" max="21" width="28.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" style="43" customWidth="1"/>
+    <col min="23" max="24" width="9.77734375" style="43" customWidth="1"/>
+    <col min="25" max="25" width="8.77734375" style="40" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" style="43" customWidth="1"/>
+    <col min="27" max="27" width="32.6640625" style="43" customWidth="1"/>
+    <col min="28" max="28" width="25.33203125" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:910" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:914" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="62"/>
     </row>
-    <row r="2" spans="1:910" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:914" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -799,52 +800,60 @@
       <c r="D2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="J2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="K2" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="N2" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="R2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="S2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="T2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="42"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -1728,137 +1737,157 @@
       <c r="AHW2" s="9"/>
       <c r="AHX2" s="9"/>
       <c r="AHY2" s="9"/>
+      <c r="AHZ2" s="9"/>
+      <c r="AIA2" s="9"/>
+      <c r="AIB2" s="9"/>
+      <c r="AIC2" s="9"/>
     </row>
-    <row r="3" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="3">
-        <f>C3*0.5+E3*0.2+G3*0.1+I3*0.2</f>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="3">
+        <f>C3*0.5+F3*0.2+I3*0.1+L3*0.2</f>
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="3"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="39"/>
+      <c r="U3" s="20"/>
       <c r="V3" s="20"/>
-      <c r="W3" s="60"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="60"/>
     </row>
-    <row r="4" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="60"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="60"/>
     </row>
-    <row r="5" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="23"/>
       <c r="R5" s="20"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="39"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
       <c r="V5" s="20"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="20"/>
     </row>
-    <row r="6" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="47"/>
+      <c r="U6" s="21"/>
       <c r="V6" s="21"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="21"/>
     </row>
-    <row r="7" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="21"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -2742,58 +2771,66 @@
       <c r="AHW7" s="4"/>
       <c r="AHX7" s="4"/>
       <c r="AHY7" s="4"/>
+      <c r="AHZ7" s="4"/>
+      <c r="AIA7" s="4"/>
+      <c r="AIB7" s="4"/>
+      <c r="AIC7" s="4"/>
     </row>
-    <row r="8" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="2"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:910" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:914" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="15"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="21"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -3677,35 +3714,39 @@
       <c r="AHW9" s="4"/>
       <c r="AHX9" s="4"/>
       <c r="AHY9" s="4"/>
-      <c r="AHZ9"/>
+      <c r="AHZ9" s="4"/>
+      <c r="AIA9" s="4"/>
+      <c r="AIB9" s="4"/>
+      <c r="AIC9" s="4"/>
+      <c r="AID9"/>
     </row>
-    <row r="10" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="21"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -4589,34 +4630,38 @@
       <c r="AHW10" s="4"/>
       <c r="AHX10" s="4"/>
       <c r="AHY10" s="4"/>
+      <c r="AHZ10" s="4"/>
+      <c r="AIA10" s="4"/>
+      <c r="AIB10" s="4"/>
+      <c r="AIC10" s="4"/>
     </row>
-    <row r="11" spans="1:910" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:914" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="44"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="21"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -5500,35 +5545,39 @@
       <c r="AHW11" s="4"/>
       <c r="AHX11" s="4"/>
       <c r="AHY11" s="4"/>
-      <c r="AHZ11"/>
+      <c r="AHZ11" s="4"/>
+      <c r="AIA11" s="4"/>
+      <c r="AIB11" s="4"/>
+      <c r="AIC11" s="4"/>
+      <c r="AID11"/>
     </row>
-    <row r="12" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="14"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="2"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="21"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -6412,106 +6461,122 @@
       <c r="AHW12" s="4"/>
       <c r="AHX12" s="4"/>
       <c r="AHY12" s="4"/>
+      <c r="AHZ12" s="4"/>
+      <c r="AIA12" s="4"/>
+      <c r="AIB12" s="4"/>
+      <c r="AIC12" s="4"/>
     </row>
-    <row r="13" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="3"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="47"/>
+      <c r="U13" s="21"/>
       <c r="V13" s="21"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="47"/>
+      <c r="U14" s="21"/>
       <c r="V14" s="21"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="53"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="47"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
       <c r="V15" s="21"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="21"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -7395,58 +7460,66 @@
       <c r="AHW16" s="4"/>
       <c r="AHX16" s="4"/>
       <c r="AHY16" s="4"/>
+      <c r="AHZ16" s="4"/>
+      <c r="AIA16" s="4"/>
+      <c r="AIB16" s="4"/>
+      <c r="AIC16" s="4"/>
     </row>
-    <row r="17" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="47"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="21"/>
       <c r="V17" s="21"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="21"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -8330,58 +8403,66 @@
       <c r="AHW18" s="4"/>
       <c r="AHX18" s="4"/>
       <c r="AHY18" s="4"/>
+      <c r="AHZ18" s="4"/>
+      <c r="AIA18" s="4"/>
+      <c r="AIB18" s="4"/>
+      <c r="AIC18" s="4"/>
     </row>
-    <row r="19" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="3"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="47"/>
+      <c r="U19" s="21"/>
       <c r="V19" s="21"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="21"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -9265,58 +9346,66 @@
       <c r="AHW20" s="4"/>
       <c r="AHX20" s="4"/>
       <c r="AHY20" s="4"/>
+      <c r="AHZ20" s="4"/>
+      <c r="AIA20" s="4"/>
+      <c r="AIB20" s="4"/>
+      <c r="AIC20" s="4"/>
     </row>
-    <row r="21" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="3"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="47"/>
+      <c r="U21" s="21"/>
       <c r="V21" s="21"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="14"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="47"/>
+      <c r="U22" s="24"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="21"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -10200,34 +10289,38 @@
       <c r="AHW22" s="4"/>
       <c r="AHX22" s="4"/>
       <c r="AHY22" s="4"/>
+      <c r="AHZ22" s="4"/>
+      <c r="AIA22" s="4"/>
+      <c r="AIB22" s="4"/>
+      <c r="AIC22" s="4"/>
     </row>
-    <row r="23" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
-      <c r="E23" s="55"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="21"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -11111,58 +11204,66 @@
       <c r="AHW23" s="4"/>
       <c r="AHX23" s="4"/>
       <c r="AHY23" s="4"/>
+      <c r="AHZ23" s="4"/>
+      <c r="AIA23" s="4"/>
+      <c r="AIB23" s="4"/>
+      <c r="AIC23" s="4"/>
     </row>
-    <row r="24" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="21"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="3"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="47"/>
+      <c r="U24" s="21"/>
       <c r="V24" s="21"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="21"/>
     </row>
-    <row r="25" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="56"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="21"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -12046,58 +12147,66 @@
       <c r="AHW25" s="4"/>
       <c r="AHX25" s="4"/>
       <c r="AHY25" s="4"/>
+      <c r="AHZ25" s="4"/>
+      <c r="AIA25" s="4"/>
+      <c r="AIB25" s="4"/>
+      <c r="AIC25" s="4"/>
     </row>
-    <row r="26" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="21"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="3"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="47"/>
+      <c r="U26" s="21"/>
       <c r="V26" s="21"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="21"/>
     </row>
-    <row r="27" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="21"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -12981,34 +13090,38 @@
       <c r="AHW27" s="4"/>
       <c r="AHX27" s="4"/>
       <c r="AHY27" s="4"/>
+      <c r="AHZ27" s="4"/>
+      <c r="AIA27" s="4"/>
+      <c r="AIB27" s="4"/>
+      <c r="AIC27" s="4"/>
     </row>
-    <row r="28" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="16"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="2"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="21"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -13892,34 +14005,38 @@
       <c r="AHW28" s="4"/>
       <c r="AHX28" s="4"/>
       <c r="AHY28" s="4"/>
+      <c r="AHZ28" s="4"/>
+      <c r="AIA28" s="4"/>
+      <c r="AIB28" s="4"/>
+      <c r="AIC28" s="4"/>
     </row>
-    <row r="29" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="13"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="26"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="21"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -14803,34 +14920,38 @@
       <c r="AHW29" s="4"/>
       <c r="AHX29" s="4"/>
       <c r="AHY29" s="4"/>
+      <c r="AHZ29" s="4"/>
+      <c r="AIA29" s="4"/>
+      <c r="AIB29" s="4"/>
+      <c r="AIC29" s="4"/>
     </row>
-    <row r="30" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="51"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="51"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="21"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -15714,34 +15835,38 @@
       <c r="AHW30" s="4"/>
       <c r="AHX30" s="4"/>
       <c r="AHY30" s="4"/>
+      <c r="AHZ30" s="4"/>
+      <c r="AIA30" s="4"/>
+      <c r="AIB30" s="4"/>
+      <c r="AIC30" s="4"/>
     </row>
-    <row r="31" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
+      <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="21"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -16625,34 +16750,38 @@
       <c r="AHW31" s="4"/>
       <c r="AHX31" s="4"/>
       <c r="AHY31" s="4"/>
+      <c r="AHZ31" s="4"/>
+      <c r="AIA31" s="4"/>
+      <c r="AIB31" s="4"/>
+      <c r="AIC31" s="4"/>
     </row>
-    <row r="32" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
-      <c r="E32" s="48"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="21"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -17536,58 +17665,66 @@
       <c r="AHW32" s="4"/>
       <c r="AHX32" s="4"/>
       <c r="AHY32" s="4"/>
+      <c r="AHZ32" s="4"/>
+      <c r="AIA32" s="4"/>
+      <c r="AIB32" s="4"/>
+      <c r="AIC32" s="4"/>
     </row>
-    <row r="33" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="44"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="3"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="47"/>
+      <c r="U33" s="21"/>
       <c r="V33" s="21"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
+      <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="21"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -18471,34 +18608,38 @@
       <c r="AHW34" s="4"/>
       <c r="AHX34" s="4"/>
       <c r="AHY34" s="4"/>
+      <c r="AHZ34" s="4"/>
+      <c r="AIA34" s="4"/>
+      <c r="AIB34" s="4"/>
+      <c r="AIC34" s="4"/>
     </row>
-    <row r="35" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
-      <c r="E35" s="51"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="51"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
+      <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="21"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -19382,34 +19523,38 @@
       <c r="AHW35" s="4"/>
       <c r="AHX35" s="4"/>
       <c r="AHY35" s="4"/>
+      <c r="AHZ35" s="4"/>
+      <c r="AIA35" s="4"/>
+      <c r="AIB35" s="4"/>
+      <c r="AIC35" s="4"/>
     </row>
-    <row r="36" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
-      <c r="E36" s="51"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="51"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="21"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -20293,34 +20438,38 @@
       <c r="AHW36" s="4"/>
       <c r="AHX36" s="4"/>
       <c r="AHY36" s="4"/>
+      <c r="AHZ36" s="4"/>
+      <c r="AIA36" s="4"/>
+      <c r="AIB36" s="4"/>
+      <c r="AIC36" s="4"/>
     </row>
-    <row r="37" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
+      <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="21"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -21204,34 +21353,38 @@
       <c r="AHW37" s="4"/>
       <c r="AHX37" s="4"/>
       <c r="AHY37" s="4"/>
+      <c r="AHZ37" s="4"/>
+      <c r="AIA37" s="4"/>
+      <c r="AIB37" s="4"/>
+      <c r="AIC37" s="4"/>
     </row>
-    <row r="38" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="3"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
+      <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="21"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -22115,34 +22268,38 @@
       <c r="AHW38" s="4"/>
       <c r="AHX38" s="4"/>
       <c r="AHY38" s="4"/>
+      <c r="AHZ38" s="4"/>
+      <c r="AIA38" s="4"/>
+      <c r="AIB38" s="4"/>
+      <c r="AIC38" s="4"/>
     </row>
-    <row r="39" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="2"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="3"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
+      <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="21"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
@@ -23026,34 +23183,38 @@
       <c r="AHW39" s="4"/>
       <c r="AHX39" s="4"/>
       <c r="AHY39" s="4"/>
+      <c r="AHZ39" s="4"/>
+      <c r="AIA39" s="4"/>
+      <c r="AIB39" s="4"/>
+      <c r="AIC39" s="4"/>
     </row>
-    <row r="40" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="3"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
+      <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="21"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
@@ -23937,34 +24098,38 @@
       <c r="AHW40" s="4"/>
       <c r="AHX40" s="4"/>
       <c r="AHY40" s="4"/>
+      <c r="AHZ40" s="4"/>
+      <c r="AIA40" s="4"/>
+      <c r="AIB40" s="4"/>
+      <c r="AIC40" s="4"/>
     </row>
-    <row r="41" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="3"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
+      <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="21"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
@@ -24848,34 +25013,38 @@
       <c r="AHW41" s="4"/>
       <c r="AHX41" s="4"/>
       <c r="AHY41" s="4"/>
+      <c r="AHZ41" s="4"/>
+      <c r="AIA41" s="4"/>
+      <c r="AIB41" s="4"/>
+      <c r="AIC41" s="4"/>
     </row>
-    <row r="42" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="2"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="3"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
+      <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="21"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
@@ -25759,58 +25928,66 @@
       <c r="AHW42" s="4"/>
       <c r="AHX42" s="4"/>
       <c r="AHY42" s="4"/>
+      <c r="AHZ42" s="4"/>
+      <c r="AIA42" s="4"/>
+      <c r="AIB42" s="4"/>
+      <c r="AIC42" s="4"/>
     </row>
-    <row r="43" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="44"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="18"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="3"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="3"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="18"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="47"/>
+      <c r="U43" s="21"/>
       <c r="V43" s="21"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="21"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
@@ -26694,34 +26871,38 @@
       <c r="AHW44" s="4"/>
       <c r="AHX44" s="4"/>
       <c r="AHY44" s="4"/>
+      <c r="AHZ44" s="4"/>
+      <c r="AIA44" s="4"/>
+      <c r="AIB44" s="4"/>
+      <c r="AIC44" s="4"/>
     </row>
-    <row r="45" spans="1:910" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:914" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="46"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="3"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
+      <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="21"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
@@ -27605,35 +27786,39 @@
       <c r="AHW45" s="4"/>
       <c r="AHX45" s="4"/>
       <c r="AHY45" s="4"/>
-      <c r="AHZ45"/>
+      <c r="AHZ45" s="4"/>
+      <c r="AIA45" s="4"/>
+      <c r="AIB45" s="4"/>
+      <c r="AIC45" s="4"/>
+      <c r="AID45"/>
     </row>
-    <row r="46" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="46"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="2"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="3"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="21"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
@@ -28517,82 +28702,94 @@
       <c r="AHW46" s="4"/>
       <c r="AHX46" s="4"/>
       <c r="AHY46" s="4"/>
+      <c r="AHZ46" s="4"/>
+      <c r="AIA46" s="4"/>
+      <c r="AIB46" s="4"/>
+      <c r="AIC46" s="4"/>
     </row>
-    <row r="47" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="14"/>
       <c r="C47" s="46"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="47"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="21"/>
       <c r="V47" s="21"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="21"/>
     </row>
-    <row r="48" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
       <c r="B48" s="21"/>
       <c r="C48" s="46"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="26"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="3"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="3"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="26"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="47"/>
+      <c r="U48" s="21"/>
       <c r="V48" s="21"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="21"/>
     </row>
-    <row r="49" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="2"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="3"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="21"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
@@ -29476,34 +29673,38 @@
       <c r="AHW49" s="4"/>
       <c r="AHX49" s="4"/>
       <c r="AHY49" s="4"/>
+      <c r="AHZ49" s="4"/>
+      <c r="AIA49" s="4"/>
+      <c r="AIB49" s="4"/>
+      <c r="AIC49" s="4"/>
     </row>
-    <row r="50" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="46"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="51"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="51"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="3"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="3"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="21"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
@@ -30387,106 +30588,122 @@
       <c r="AHW50" s="4"/>
       <c r="AHX50" s="4"/>
       <c r="AHY50" s="4"/>
+      <c r="AHZ50" s="4"/>
+      <c r="AIA50" s="4"/>
+      <c r="AIB50" s="4"/>
+      <c r="AIC50" s="4"/>
     </row>
-    <row r="51" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="46"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="3"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="3"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="47"/>
+      <c r="U51" s="21"/>
       <c r="V51" s="21"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="14"/>
       <c r="C52" s="46"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="47"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="21"/>
       <c r="V52" s="21"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
-      <c r="E53" s="51"/>
+      <c r="E53" s="45"/>
       <c r="F53" s="51"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="3"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="3"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="47"/>
+      <c r="U53" s="21"/>
       <c r="V53" s="21"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="3"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="3"/>
+      <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="21"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
@@ -31370,34 +31587,38 @@
       <c r="AHW54" s="4"/>
       <c r="AHX54" s="4"/>
       <c r="AHY54" s="4"/>
+      <c r="AHZ54" s="4"/>
+      <c r="AIA54" s="4"/>
+      <c r="AIB54" s="4"/>
+      <c r="AIC54" s="4"/>
     </row>
-    <row r="55" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
-      <c r="E55" s="51"/>
+      <c r="E55" s="45"/>
       <c r="F55" s="51"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="2"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="21"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="21"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
@@ -32281,34 +32502,38 @@
       <c r="AHW55" s="4"/>
       <c r="AHX55" s="4"/>
       <c r="AHY55" s="4"/>
+      <c r="AHZ55" s="4"/>
+      <c r="AIA55" s="4"/>
+      <c r="AIB55" s="4"/>
+      <c r="AIC55" s="4"/>
     </row>
-    <row r="56" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="3"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="3"/>
+      <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="21"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
@@ -33192,106 +33417,122 @@
       <c r="AHW56" s="4"/>
       <c r="AHX56" s="4"/>
       <c r="AHY56" s="4"/>
+      <c r="AHZ56" s="4"/>
+      <c r="AIA56" s="4"/>
+      <c r="AIB56" s="4"/>
+      <c r="AIC56" s="4"/>
     </row>
-    <row r="57" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="2"/>
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="45"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="3"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="3"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="47"/>
+      <c r="U57" s="21"/>
       <c r="V57" s="21"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="14"/>
       <c r="C58" s="46"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="3"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
-      <c r="S58" s="3"/>
+      <c r="S58" s="21"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="47"/>
+      <c r="U58" s="21"/>
       <c r="V58" s="21"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="12"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="3"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="3"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="47"/>
+      <c r="U59" s="21"/>
       <c r="V59" s="21"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="47"/>
+      <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="21"/>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="12"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="3"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="3"/>
+      <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="47"/>
+      <c r="Z60" s="21"/>
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
@@ -34175,58 +34416,66 @@
       <c r="AHW60" s="4"/>
       <c r="AHX60" s="4"/>
       <c r="AHY60" s="4"/>
+      <c r="AHZ60" s="4"/>
+      <c r="AIA60" s="4"/>
+      <c r="AIB60" s="4"/>
+      <c r="AIC60" s="4"/>
     </row>
-    <row r="61" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="14"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
-      <c r="E61" s="55"/>
+      <c r="E61" s="45"/>
       <c r="F61" s="55"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="47"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
       <c r="V61" s="21"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:910" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:914" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="46"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="12"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="47"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="21"/>
       <c r="V62" s="21"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="47"/>
+      <c r="Z62" s="21"/>
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
@@ -35110,114 +35359,136 @@
       <c r="AHW62" s="4"/>
       <c r="AHX62" s="4"/>
       <c r="AHY62" s="4"/>
-      <c r="AHZ62"/>
+      <c r="AHZ62" s="4"/>
+      <c r="AIA62" s="4"/>
+      <c r="AIB62" s="4"/>
+      <c r="AIC62" s="4"/>
+      <c r="AID62"/>
     </row>
-    <row r="63" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="46"/>
       <c r="D63" s="46"/>
-      <c r="E63" s="12"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="18"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="3"/>
       <c r="P63" s="2"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="3"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="18"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="47"/>
+      <c r="U63" s="21"/>
       <c r="V63" s="21"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="47"/>
+      <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:914" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="46"/>
       <c r="D64" s="46"/>
-      <c r="E64" s="12"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="18"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="3"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="3"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="18"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="47"/>
+      <c r="U64" s="21"/>
       <c r="V64" s="21"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="21"/>
     </row>
-    <row r="65" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="14"/>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
-      <c r="E65" s="55"/>
+      <c r="E65" s="45"/>
       <c r="F65" s="55"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="3"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="3"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="47"/>
+      <c r="U65" s="21"/>
       <c r="V65" s="21"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="21"/>
     </row>
-    <row r="66" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X66" s="38" t="s">
+    <row r="66" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB66" s="38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+    <row r="67" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+    <row r="69" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+    <row r="70" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+    <row r="71" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+    <row r="72" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+    <row r="73" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V66" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V66">
-      <sortCondition ref="L2:L66"/>
+  <autoFilter ref="A2:Z66" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z66">
+      <sortCondition ref="P2:P66"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
